--- a/_site/program.xlsx
+++ b/_site/program.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CUTTING\Documents\RepTemplates\Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CUTTING\Documents\RepTemplates\website2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB1C47A-09D6-4B44-9DB6-8184C2BCFAA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD5DD33-D7A6-45DD-8D61-BE30C33632D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24660" yWindow="2355" windowWidth="20160" windowHeight="9765" xr2:uid="{88C130EB-F0E1-4967-94B7-A319D524D18C}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{88C130EB-F0E1-4967-94B7-A319D524D18C}"/>
   </bookViews>
   <sheets>
     <sheet name="day1" sheetId="1" r:id="rId1"/>
+    <sheet name="ex" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>17.00</t>
   </si>
@@ -106,18 +107,118 @@
  wine &amp; water
  coffee</t>
   </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>milestone</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Milestone 1</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Milestone 2</t>
+  </si>
+  <si>
+    <t>Milestone 3</t>
+  </si>
+  <si>
+    <t>Milestone 4</t>
+  </si>
+  <si>
+    <t>Milestone 5</t>
+  </si>
+  <si>
+    <t>Milestone 6</t>
+  </si>
+  <si>
+    <t>Milestone 7</t>
+  </si>
+  <si>
+    <t>Milestone 8</t>
+  </si>
+  <si>
+    <t>Milestone 9</t>
+  </si>
+  <si>
+    <t>On Target</t>
+  </si>
+  <si>
+    <t>Milestone 10</t>
+  </si>
+  <si>
+    <t>Milestone 11</t>
+  </si>
+  <si>
+    <t>At Risk</t>
+  </si>
+  <si>
+    <t>Milestone 12</t>
+  </si>
+  <si>
+    <t>Milestone 13</t>
+  </si>
+  <si>
+    <t>Milestone 14</t>
+  </si>
+  <si>
+    <t>Milestone 15</t>
+  </si>
+  <si>
+    <t>Milestone 16</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Milestone 17</t>
+  </si>
+  <si>
+    <t>Milestone 18</t>
+  </si>
+  <si>
+    <t>Milestone 19</t>
+  </si>
+  <si>
+    <t>Milestone 20</t>
+  </si>
+  <si>
+    <t>Milestone 21</t>
+  </si>
+  <si>
+    <t>Milestone 22</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF303133"/>
+      <name val="Hind"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Hind"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -136,14 +237,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFEAEAEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFEAEAEA"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFEAEAEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,18 +594,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041DFA79-C14E-428D-8E26-5C645A91663F}">
   <dimension ref="B2:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.42578125" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -492,7 +625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -506,7 +639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -520,7 +653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -534,7 +667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="141" customHeight="1">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -554,7 +687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -566,6 +699,347 @@
       </c>
       <c r="G7" t="s">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076075B8-1437-49E6-906E-CFA9E110EE7F}">
+  <dimension ref="B2:E24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B3" s="4">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B4" s="4">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B5" s="4">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B6" s="4">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B11" s="4">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B12" s="4">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B13" s="4">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B14" s="4">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B15" s="4">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B16" s="4">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B17" s="4">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B18" s="4">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2019</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B19" s="4">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2019</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B20" s="4">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2019</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B21" s="4">
+        <v>9</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2019</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B22" s="4">
+        <v>10</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2019</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B23" s="4">
+        <v>10</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2019</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B24" s="4">
+        <v>12</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2019</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
